--- a/data/Loop on term and rho.xlsx
+++ b/data/Loop on term and rho.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="25600" windowHeight="15140" activeTab="1"/>
+    <workbookView xWindow="20760" yWindow="460" windowWidth="19980" windowHeight="28340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Principal</t>
   </si>
@@ -49,10 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -103,22 +101,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,13 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -457,321 +463,321 @@
         <v>5000</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>2.1889193916106879E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.97811080608389311</v>
+        <v>0.10640253684113454</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.89359746315886546</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>4.584237250810233E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.9541576274918977</v>
+        <v>0.17689338571285573</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.82310661428714427</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4643178053511282E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.98535682194648877</v>
+        <v>0.2473842345845769</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.75261576541542308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>4.3778387832213758E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.95622161216778623</v>
+        <v>0.31787508345629811</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.68212491654370189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>9.1684745016204661E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.90831525498379539</v>
+        <v>0.38836593232801936</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6116340676719807</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2.9286356107022564E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.97071364389297743</v>
+        <v>0.45885678119974055</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.5411432188002594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>6.566758174832063E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.93433241825167934</v>
+        <v>0.52934763007146179</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.47065236992853821</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>0.13752711752430699</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.86247288247569298</v>
+        <v>0.59983847894318298</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.40016152105681702</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>4.3929534160533842E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.9560704658394662</v>
+        <v>0.67032932781490417</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.32967067218509583</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>8.7556775664427516E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.91244322433557246</v>
+        <v>0.74082017668662536</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.25917982331337464</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>0.18336949003240932</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.81663050996759068</v>
+        <v>0.81131102555834633</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.18868897444165367</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5.8572712214045128E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.94142728778595486</v>
+        <v>0.88180187443006763</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.11819812556993237</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>0.10944596958053439</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.89055403041946557</v>
+        <v>0.95229272330178882</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.7707276698211176E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>0.22921186254051165</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.77078813745948838</v>
+        <v>1.0227835721735101</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-2.2783572173510125E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>7.3215890267556413E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.92678410973244363</v>
+        <v>1.0932744210452312</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-9.3274421045231204E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>0.13133516349664126</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.86866483650335868</v>
+        <v>1.1637652699169525</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-0.16376526991695251</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>0.27505423504861398</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.72494576495138596</v>
+        <v>9.0448854509179805E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.90955114549082017</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>8.7859068321067685E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.91214093167893229</v>
+        <v>0.14973104201015319</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.85026895798984681</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>0.15322435741274815</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.84677564258725191</v>
+        <v>0.20901322951112655</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.79098677048887345</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>0.32089660755671634</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.67910339244328366</v>
+        <v>0.26829541701209997</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.73170458298790009</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>0.10250224637457897</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.89749775362542106</v>
+        <v>0.32757760451307333</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.67242239548692662</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>0.17511355132885503</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.82488644867114491</v>
+        <v>0.38685979201404669</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.61314020798595337</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>0.36673898006481864</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.63326101993518136</v>
+        <v>0.44614197951502005</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.5538580204849799</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,13 +785,13 @@
         <v>40000</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>0.11714542442809026</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.88285457557190972</v>
+        <v>0.50542416701599346</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.49457583298400654</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,398 +799,3248 @@
         <v>45000</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>0.19700274524496192</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.80299725475503814</v>
+        <v>0.56470635451696682</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.43529364548303318</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>0.412581352572921</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.58741864742707905</v>
+        <v>0.6239885420179403</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.3760114579820597</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>0.13178860248160154</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.86821139751839849</v>
+        <v>0.68327072951891354</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.31672927048108646</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>0.21889193916106878</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.78110806083893125</v>
+        <v>0.7425529170198869</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.2574470829801131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>0.4584237250810233</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.54157627491897675</v>
+        <v>0.80183510452086026</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.19816489547913974</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
-        <v>0.14643178053511283</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.85356821946488715</v>
+        <v>0.86111729202183374</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.13888270797816626</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>0.24078113307717566</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.75921886692282436</v>
+        <v>0.9203994795228071</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.9600520477192904E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>55000</v>
+        <v>80000</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>0.50426609758912566</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.49573390241087434</v>
+        <v>0.97968166702378046</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.0318332976219544E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>55000</v>
+        <v>5000</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>0.16107495858862408</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.83892504141137592</v>
+        <v>7.9112123298298143E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.92088787670170191</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>0.26267032699328252</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.73732967300671748</v>
+        <v>0.1304745642573665</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.86952543574263352</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>0.55010847009722796</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.44989152990277204</v>
+        <v>0.18183700521643489</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.81816299478356513</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.23319944617550328</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.76680055382449674</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.28456188713457164</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.71543811286542836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.33592432809363998</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.66407567190636008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.38728676905270837</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.61271323094729158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.43864921001177676</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.5613507899882233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.49001165097084515</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.5099883490291548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.54137409192991348</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.45862590807008652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.59273653288898176</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.40726346711101824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>60000</v>
       </c>
-      <c r="B37">
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.64409897384805015</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.35590102615194985</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.69546141480711854</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.30453858519288146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.74682385576618693</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.25317614423381307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.79818629672525532</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.20181370327474468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.84954873768432371</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.15045126231567629</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7.0737025259171415E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.92926297474082853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.11627826609287814</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.88372173390712183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.16181950692658487</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.83818049307341513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.20736074776029162</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.79263925223970833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.25290198859399837</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.74709801140600163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.29844322942770507</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.70155677057229493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.34398447026141177</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.65601552973858823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.38952571109511852</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.61047428890488153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.43506695192882527</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.56493304807117473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.48060819276253203</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.51939180723746792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.52614943359623867</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.47385056640376133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.57169067442994537</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.42830932557005463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.61723191526365218</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.38276808473634782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.66277315609735887</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.33722684390264113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.70831439693106568</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.29168560306893432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.75385563776477238</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.24614436223522762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6.4307791288288216E-2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.93569220871171177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.10540319448805414</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.89459680551194587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.14649859768782006</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.85350140231217997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.18759400088758599</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.81240599911241396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.22868940408735197</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.77131059591264806</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.26978480728711784</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.73021519271288216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.3108802104868838</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.68911978951311625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.35197561368664976</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.64802438631335024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.39307101688641566</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.60692898311358434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.43416642008618156</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.56583357991381844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.4752618232859474</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.52473817671405265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.51635722648571336</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.48364277351428664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.55745262968547926</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.44254737031452074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.59854803288524527</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.40145196711475473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.63964343608501117</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.36035656391498883</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.68073883928477708</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.31926116071522292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5.924362929712855E-2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.94075637070287144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
+        <v>9.6854114445457495E-2</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.90314588555454245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.13446459959378645</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.86553540040621357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.17207508474211541</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.82792491525788459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.20968556989044437</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.7903144301095556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.24729605503877328</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.75270394496122672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.28490654018710226</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.71509345981289774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.3225170253354312</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.67748297466456875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.36012751048376018</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.63987248951623976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.39773799563208906</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.602262004367911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.43534848078041793</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.56465151921958201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.47295896592874692</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.52704103407125302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.51056945107707585</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.48943054892292415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.54817993622540484</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.45182006377459516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.58579042137373383</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.41420957862626617</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.6234009065220627</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.3765990934779373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5.5165915009180277E-2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.94483408499081967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B99">
+        <v>11</v>
+      </c>
+      <c r="C99" s="2">
+        <v>8.9983469260152688E-2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.91001653073984734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.12480102351112511</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.8751989764888749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.15961857776209754</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.84038142223790246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.19443613201306997</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.80556386798693003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.22925368626404236</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.77074631373595759</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.26407124051501479</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.73592875948498526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.29888879476598723</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.70111120523401271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.33370634901695967</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.66629365098304039</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.36852390326793211</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.63147609673206784</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.40334145751890443</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.59665854248109551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.43815901176987687</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.56184098823012318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.47297656602084931</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.52702343397915064</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.5077941202718218</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.4922058797281782</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.54261167452279424</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.45738832547720576</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.57742922877376668</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.42257077122623332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2">
+        <v>5.1855666510879618E-2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.94814433348912042</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115" s="2">
+        <v>8.4414468832838943E-2</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.91558553116716102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.11697327115479828</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.88302672884520172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.14953207347675762</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.85046792652324243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.18209087579871697</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.81790912420128303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.21464967812067628</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.78535032187932374</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.24720848044263563</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.75279151955736434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.279767282764595</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.72023271723540505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.31232608508655435</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.68767391491344565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.3448848874085137</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.65511511259148625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.37744368973047293</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.62255631026952707</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.41000249205243228</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.58999750794756767</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.44256129437439162</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.55743870562560838</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B127">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.47512009669635097</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.52487990330364909</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.50767889901831031</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.49232110098168969</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.54023770134026972</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.45976229865973028</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4.9099862411943251E-2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.9509001375880568</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131" s="2">
+        <v>7.9786458834748317E-2</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.92021354116525167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.1104730552575534</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.88952694474244665</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.14115965168035849</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.85884034831964151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.17184624810316357</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.82815375189683649</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.20253284452596865</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.79746715547403135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.23321944094877373</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.76678055905122622</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B137">
+        <v>13</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.26390603737157881</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.73609396262842119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.29459263379438388</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.70540736620561617</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B139">
+        <v>13</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.32527923021718896</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.67472076978281104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.35596582663999399</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.64403417336000601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B141">
+        <v>13</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.38665242306279907</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.61334757693720099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.41733901948560415</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.58266098051439585</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B143">
+        <v>13</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.44802561590840922</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.55197438409159072</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.4787122123312143</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.5212877876687857</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.50939880875401944</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.49060119124598056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B146">
+        <v>14</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4.6787422744196783E-2</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.95321257725580322</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+      <c r="C147" s="2">
+        <v>7.5909093176739675E-2</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.92409090682326034</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B148">
+        <v>14</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.10503076360928257</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.89496923639071746</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.13415243404182547</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.86584756595817458</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.16327410447436838</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.83672589552563159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.19239577490691126</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.80760422509308871</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.22151744533945417</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.77848255466054583</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.2506391157719971</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.74936088422800284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.27976078620453998</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0.72023921379546008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B155">
+        <v>14</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.30888245663708286</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.69111754336291709</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.33800412706962574</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.66199587293037432</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B157">
+        <v>14</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.36712579750216862</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.63287420249783133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.39624746793471155</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.60375253206528845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.42536913836725443</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.57463086163274557</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.45449080879979736</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.54550919120020258</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B161">
+        <v>14</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.48361247923234024</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.51638752076765981</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B162">
         <v>15</v>
       </c>
-      <c r="C37" s="2">
-        <v>0.17571813664213537</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.82428186335786457</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="C162" s="2">
+        <v>4.4845559605907491E-2</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.95515444039409247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B163">
+        <v>15</v>
+      </c>
+      <c r="C163" s="2">
+        <v>7.2656925773632489E-2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.92734307422636753</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>15000</v>
       </c>
-      <c r="B2">
+      <c r="B164">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
-        <v>4.3929534160533842E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.9560704658394662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="C164" s="2">
+        <v>0.10046829194135749</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.89953170805864247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>20000</v>
       </c>
-      <c r="B3">
+      <c r="B165">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>5.8572712214045128E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.94142728778595486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="C165" s="2">
+        <v>0.12827965810908251</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.87172034189091752</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>25000</v>
       </c>
-      <c r="B4">
+      <c r="B166">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.3215890267556413E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.92678410973244363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="C166" s="2">
+        <v>0.15609102427680752</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.84390897572319246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>30000</v>
       </c>
-      <c r="B5">
+      <c r="B167">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <v>8.7859068321067685E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.91214093167893229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="C167" s="2">
+        <v>0.18390239044453247</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.81609760955546751</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>35000</v>
       </c>
-      <c r="B6">
+      <c r="B168">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.10250224637457897</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.89749775362542106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="C168" s="2">
+        <v>0.2117137566122575</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.78828624338774245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>40000</v>
       </c>
-      <c r="B7">
+      <c r="B169">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.11714542442809026</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.88285457557190972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="C169" s="2">
+        <v>0.2395251227799825</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.7604748772200175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>45000</v>
       </c>
-      <c r="B8">
+      <c r="B170">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.13178860248160154</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.86821139751839849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="C170" s="2">
+        <v>0.26733648894770751</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.73266351105229255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>50000</v>
       </c>
-      <c r="B9">
+      <c r="B171">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.14643178053511283</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.85356821946488715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="C171" s="2">
+        <v>0.29514785511543251</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.70485214488456749</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>55000</v>
       </c>
-      <c r="B10">
+      <c r="B172">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.16107495858862408</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.83892504141137592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="C172" s="2">
+        <v>0.32295922128315746</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.67704077871684254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>60000</v>
       </c>
-      <c r="B11">
+      <c r="B173">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.17571813664213537</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.82428186335786457</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="C173" s="2">
+        <v>0.35077058745088247</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.64922941254911759</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.37858195361860747</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.62141804638139253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.40639331978633253</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.59360668021366747</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.43420468595405753</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.56579531404594241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B177">
+        <v>15</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.46201605212178254</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.53798394787821746</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B178">
+        <v>16</v>
+      </c>
+      <c r="C178" s="2">
+        <v>4.3187328001736587E-2</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.95681267199826336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179" s="2">
+        <v>6.9883533585986674E-2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.93011646641401335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180" s="2">
+        <v>9.6579739170236767E-2</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.90342026082976323</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.12327594475448686</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.87672405524551311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.14997215033873695</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.85002784966126299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.17666835592298702</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.82333164407701298</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B184">
+        <v>16</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.20336456150723714</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.79663543849276286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.23006076709148723</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.76993923290851274</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.25675697267573733</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.74324302732426273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.28345317825998739</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.71654682174001261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.31014938384423746</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.68985061615576249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.33684558942848758</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.66315441057151236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B190">
+        <v>16</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.36354179501273765</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.63645820498726235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B191">
+        <v>16</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.39023800059698777</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0.60976199940301223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B192">
+        <v>16</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.41693420618123783</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0.58306579381876222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.44363041176548801</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.55636958823451199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B194">
+        <v>17</v>
+      </c>
+      <c r="C194" s="2">
+        <v>4.1766934704743852E-2</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0.9582330652952562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B195">
+        <v>17</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6.7510638229940398E-2</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0.93248936177005959</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196" s="2">
+        <v>9.3254341755136944E-2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.90674565824486308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B197">
+        <v>17</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.1189980452803335</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0.88100195471966647</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.14474174880553009</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.85525825119446997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B199">
+        <v>17</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0.17048545233072659</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.82951454766927335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B200">
+        <v>17</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0.19622915585592315</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.80377084414407685</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B201">
+        <v>17</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0.22197285938111971</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.77802714061888034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B202">
+        <v>17</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0.24771656290631625</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.75228343709368373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B203">
+        <v>17</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.27346026643151283</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.72653973356848711</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B204">
+        <v>17</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.29920396995670934</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0.70079603004329072</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B205">
+        <v>17</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.3249476734819059</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.6750523265180941</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.35069137700710246</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.64930862299289749</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B207">
+        <v>17</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.37643508053229902</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.62356491946770098</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B208">
+        <v>17</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.40217878405749558</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.59782121594250448</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B209">
+        <v>17</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.42792248758269213</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.57207751241730787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B210">
+        <v>18</v>
+      </c>
+      <c r="C210" s="2">
+        <v>4.0536297659821585E-2</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.95946370234017841</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B211">
+        <v>18</v>
+      </c>
+      <c r="C211" s="2">
+        <v>6.5457283436921851E-2</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.93454271656307819</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B212">
+        <v>18</v>
+      </c>
+      <c r="C212" s="2">
+        <v>9.0378269214022103E-2</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.90962173078597786</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B213">
+        <v>18</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.11529925499112237</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.88470074500887763</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B214">
+        <v>18</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.14022024076822265</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.8597797592317773</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B215">
+        <v>18</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.1651412265453229</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.83485877345467707</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B216">
+        <v>18</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.19006221232242318</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0.80993778767757685</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.21498319809952343</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.78501680190047662</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B218">
+        <v>18</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.23990418387662371</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.76009581612337629</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B219">
+        <v>18</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.26482516965372399</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.73517483034627595</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B220">
+        <v>18</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.28974615543082421</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.71025384456917573</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.31466714120792449</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.68533285879207551</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B222">
+        <v>18</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.33958812698502472</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.66041187301497528</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B223">
+        <v>18</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.364509112762125</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0.63549088723787506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B224">
+        <v>18</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.38943009853922528</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0.61056990146077472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B225">
+        <v>18</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.41435108431632556</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.58564891568367439</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B226">
+        <v>19</v>
+      </c>
+      <c r="C226" s="2">
+        <v>3.9469943597275528E-2</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.96053005640272449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B227">
+        <v>19</v>
+      </c>
+      <c r="C227" s="2">
+        <v>6.3679815418066554E-2</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.93632018458193345</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B228">
+        <v>19</v>
+      </c>
+      <c r="C228" s="2">
+        <v>8.7889687238857594E-2</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.91211031276114241</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B229">
+        <v>19</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.11209955905964863</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0.88790044094035137</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B230">
+        <v>19</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.13630943088043967</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0.86369056911956033</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B231">
+        <v>19</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.16051930270123069</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0.83948069729876929</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B232">
+        <v>19</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.18472917452202173</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.81527082547797824</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B233">
+        <v>19</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.2089390463428128</v>
+      </c>
+      <c r="D233" s="3">
+        <v>0.7910609536571872</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B234">
+        <v>19</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.23314891816360384</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.76685108183639616</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B235">
+        <v>19</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.25735878998439488</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0.74264121001560512</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B236">
+        <v>19</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.28156866180518586</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0.7184313381948142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B237">
+        <v>19</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.3057785336259769</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.69422146637402316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B238">
+        <v>19</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.32998840544676794</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0.67001159455323211</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B239">
+        <v>19</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.35419827726755898</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0.64580172273244107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B240">
+        <v>19</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.37840814908835002</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0.62159185091165003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B241">
+        <v>19</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.40261802090914106</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.59738197909085899</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B242">
+        <v>20</v>
+      </c>
+      <c r="C242" s="2">
+        <v>3.8539734300262127E-2</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0.96146026569973786</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B243">
+        <v>20</v>
+      </c>
+      <c r="C243" s="2">
+        <v>6.2130829010543363E-2</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0.93786917098945666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B244">
+        <v>20</v>
+      </c>
+      <c r="C244" s="2">
+        <v>8.5721923720824586E-2</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0.91427807627917546</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B245">
+        <v>20</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0.10931301843110583</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0.89068698156889414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.13290411314138706</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0.86709588685861294</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.15649520785166832</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.84350479214833163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>35000</v>
+      </c>
+      <c r="B248">
+        <v>20</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.18008630256194955</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0.81991369743805043</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B249">
+        <v>20</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.20367739727223078</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0.79632260272776922</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B250">
+        <v>20</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.22726849198251203</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0.77273150801748791</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B251">
+        <v>20</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0.25085958669279329</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0.74914041330720671</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>55000</v>
+      </c>
+      <c r="B252">
+        <v>20</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.27445068140307444</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0.72554931859692551</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B253">
+        <v>20</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0.29804177611335569</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0.70195822388664431</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B254">
+        <v>20</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.32163287082363695</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0.6783671291763631</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B255">
+        <v>20</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.34522396553391821</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0.65477603446608179</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B256">
+        <v>20</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.36881506024419941</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0.63118493975580059</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B257">
+        <v>20</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.39240615495448067</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0.60759384504551939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Loop on term and rho.xlsx
+++ b/data/Loop on term and rho.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\ISA-Research-Paper\ISA repriced with fixed income\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh4\PycharmProjects\Tracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19412AA7-3F18-46F4-B5DC-18B6877273B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF960AA4-BDEA-4EC9-A0F4-16C47822230C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2985" windowWidth="38865" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +48,7 @@
     <t>ISA %</t>
   </si>
   <si>
-    <t>1-rho</t>
+    <t>rho</t>
   </si>
 </sst>
 </file>
@@ -433,7 +434,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,7 +669,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
     <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
